--- a/Controle_dias_fora_de_sede.xlsx
+++ b/Controle_dias_fora_de_sede.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Operações\PLANEJAMENTO E CONTROLE\cciao_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BD01C0-61AD-4B9E-9CED-CC7239153723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13451944-137E-451C-81AA-48777C0E486B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="53">
   <si>
     <t>Trigrama</t>
   </si>
@@ -338,8 +338,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{785BDBF2-9DFE-4082-BE17-549BAA174A8B}" name="Table1" displayName="Table1" ref="A1:F117" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:F117" xr:uid="{785BDBF2-9DFE-4082-BE17-549BAA174A8B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{785BDBF2-9DFE-4082-BE17-549BAA174A8B}" name="Table1" displayName="Table1" ref="A1:F124" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:F124" xr:uid="{785BDBF2-9DFE-4082-BE17-549BAA174A8B}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{23602669-6F9E-4C8C-B179-FE738E222AD6}" name="Trigrama" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{DD788307-9B40-4199-AAEF-8B8E201C9C11}" name="Missão"/>
@@ -637,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,7 +723,7 @@
         <v>45081</v>
       </c>
       <c r="D4" s="1">
-        <v>45100</v>
+        <v>45103</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>43</v>
@@ -903,7 +903,7 @@
         <v>45117</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -954,13 +954,16 @@
         <v>6</v>
       </c>
       <c r="C16" s="1">
-        <v>45096</v>
+        <v>45093</v>
       </c>
       <c r="D16" s="1">
         <v>45101</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1051,10 +1054,10 @@
         <v>45081</v>
       </c>
       <c r="D21" s="1">
-        <v>45100</v>
+        <v>45103</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1111,7 +1114,7 @@
         <v>45117</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1616,7 +1619,7 @@
         <v>45081</v>
       </c>
       <c r="D50" s="1">
-        <v>45100</v>
+        <v>45103</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>43</v>
@@ -1990,7 +1993,10 @@
         <v>45101</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="F69" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2064,10 +2070,13 @@
         <v>45093</v>
       </c>
       <c r="D73" s="1">
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="F73" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2338,7 +2347,7 @@
         <v>45117</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2849,6 +2858,125 @@
       </c>
       <c r="E117" s="1" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="1">
+        <v>45117</v>
+      </c>
+      <c r="D118" s="1">
+        <v>45132</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="1">
+        <v>45117</v>
+      </c>
+      <c r="D119" s="1">
+        <v>45132</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" s="1">
+        <v>45117</v>
+      </c>
+      <c r="D120" s="1">
+        <v>45132</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="1">
+        <v>45115</v>
+      </c>
+      <c r="D121" s="1">
+        <v>45132</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" s="1">
+        <v>45115</v>
+      </c>
+      <c r="D122" s="1">
+        <v>45132</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="1">
+        <v>45115</v>
+      </c>
+      <c r="D123" s="1">
+        <v>45132</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="1">
+        <v>45102</v>
+      </c>
+      <c r="D124" s="1">
+        <v>45117</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
